--- a/medicine/Pharmacie/1976_en_santé_et_médecine/1976_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1976_en_santé_et_médecine/1976_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1976_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1976_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1976 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1976_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1976_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Chine
-9 septembre : mort de Mao Zedong des suites d'une sclérose latérale amyotrophique ou maladie de Charcot[1].
-États-Unis
-7 avril : fondation de la société de biotechnologie Genentech par Robert A. Swanson et le biochimiste Herbert Boyer[2],[3].</t>
+          <t>Chine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>9 septembre : mort de Mao Zedong des suites d'une sclérose latérale amyotrophique ou maladie de Charcot.</t>
         </is>
       </c>
     </row>
@@ -526,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1976_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1976_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +556,48 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>7 avril : fondation de la société de biotechnologie Genentech par Robert A. Swanson et le biochimiste Herbert Boyer,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1976_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1976_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>20 juillet : Pierre Mâle (né en 1900), psychiatre français.</t>
         </is>
